--- a/biology/Zoologie/Eratigena_saeva/Eratigena_saeva.xlsx
+++ b/biology/Zoologie/Eratigena_saeva/Eratigena_saeva.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eratigena saeva est une espèce d'araignées aranéomorphes de la famille des Agelenidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eratigena saeva est une espèce d'araignées aranéomorphes de la famille des Agelenidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Europe de l'Ouest[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Europe de l'Ouest.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les mâles mesurent de 10 à 14 mm et les femelles de 11 à 16 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les mâles mesurent de 10 à 14 mm et les femelles de 11 à 16 mm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Tegenaria saeva par Blackwall en 1844. Elle est placée en synonymie avec Eratigena atrica par Bolzern, Burckhardt et Hänggi en 2013[3]. Elle est relevée de synonymie par Oxford et Bolzern en 2018[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Tegenaria saeva par Blackwall en 1844. Elle est placée en synonymie avec Eratigena atrica par Bolzern, Burckhardt et Hänggi en 2013. Elle est relevée de synonymie par Oxford et Bolzern en 2018.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Blackwall, 1844 : « Descriptions of some newly discovered species of Araneida. » Annals and Magazine of Natural History, vol. 13, p. 179-188 (texte intégral).</t>
         </is>
